--- a/GridSearchResults/Hyperparameters_NTSK-RLS_TAIEX.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_TAIEX.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>735.6837863987802</v>
+        <v>735.6847272333264</v>
       </c>
       <c r="G2" t="n">
-        <v>1.559305307272698</v>
+        <v>1.5593073014016</v>
       </c>
       <c r="H2" t="n">
-        <v>621.135899129242</v>
+        <v>621.1362911226581</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>628.0698038617339</v>
+        <v>628.0697862720583</v>
       </c>
       <c r="G3" t="n">
-        <v>1.331214030546083</v>
+        <v>1.331213993264204</v>
       </c>
       <c r="H3" t="n">
-        <v>519.851115491827</v>
+        <v>519.8511024528511</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>447.8658341449561</v>
+        <v>447.8658335352644</v>
       </c>
       <c r="G4" t="n">
-        <v>0.949265955074067</v>
+        <v>0.9492659537818059</v>
       </c>
       <c r="H4" t="n">
-        <v>371.5649222638697</v>
+        <v>371.5649217648865</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>166.6390935573691</v>
+        <v>166.6390935828085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3531968867426818</v>
+        <v>0.3531968867966014</v>
       </c>
       <c r="H5" t="n">
-        <v>134.1974477868784</v>
+        <v>134.1974478075941</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.9</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>159.6070175795028</v>
+        <v>159.6070175758485</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3382921768711934</v>
+        <v>0.3382921768634481</v>
       </c>
       <c r="H6" t="n">
-        <v>123.1688304220699</v>
+        <v>123.1688304172969</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.91</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>158.589605853389</v>
+        <v>158.5896058539086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3361357401880141</v>
+        <v>0.3361357401891153</v>
       </c>
       <c r="H7" t="n">
-        <v>122.2379654456768</v>
+        <v>122.237965446326</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.92</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>156.9971585319859</v>
+        <v>156.9971585299137</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3327604971750191</v>
+        <v>0.3327604971706271</v>
       </c>
       <c r="H8" t="n">
-        <v>121.0620171367219</v>
+        <v>121.0620171341886</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.93</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>154.860149284272</v>
+        <v>154.8601492818763</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3282310377479429</v>
+        <v>0.3282310377428651</v>
       </c>
       <c r="H9" t="n">
-        <v>119.5049136864986</v>
+        <v>119.5049136835853</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>152.4267656781454</v>
+        <v>152.4267656778785</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3230734033922404</v>
+        <v>0.3230734033916748</v>
       </c>
       <c r="H10" t="n">
-        <v>117.7652971104472</v>
+        <v>117.7652971102489</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>150.0510390971466</v>
+        <v>150.051039096634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3180379749447633</v>
+        <v>0.3180379749436767</v>
       </c>
       <c r="H11" t="n">
-        <v>115.8753280703174</v>
+        <v>115.8753280695907</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>0.96</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>147.9940637365287</v>
+        <v>147.9940637366596</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3136781499003084</v>
+        <v>0.313678149900586</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4334052775378</v>
+        <v>113.4334052777797</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -831,17 +853,19 @@
       <c r="D13" t="n">
         <v>0.97</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>146.5696033874333</v>
+        <v>146.5696033874137</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3106589606461634</v>
+        <v>0.3106589606461219</v>
       </c>
       <c r="H13" t="n">
-        <v>110.9288156093123</v>
+        <v>110.9288156094523</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -862,17 +886,19 @@
       <c r="D14" t="n">
         <v>0.98</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>145.6953231335128</v>
+        <v>145.6953231336185</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3088058956946368</v>
+        <v>0.3088058956948608</v>
       </c>
       <c r="H14" t="n">
-        <v>108.7440558094872</v>
+        <v>108.7440558095911</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -893,17 +919,19 @@
       <c r="D15" t="n">
         <v>0.99</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>144.6603842420397</v>
+        <v>144.6603842420427</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3066123096240826</v>
+        <v>0.3066123096240889</v>
       </c>
       <c r="H15" t="n">
-        <v>107.6406888505357</v>
+        <v>107.6406888505345</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -924,17 +952,19 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>144.8447666333834</v>
+        <v>144.8447666333826</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3070031139977895</v>
+        <v>0.3070031139977878</v>
       </c>
       <c r="H16" t="n">
-        <v>107.9718208199609</v>
+        <v>107.9718208199631</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
